--- a/data/trans_orig/P13A_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_2023-Provincia-trans_orig.xlsx
@@ -923,16 +923,16 @@
         <v>27650</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24322</v>
+        <v>23298</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>29340</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9423944929807114</v>
+        <v>0.9423944929807113</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8289649355618239</v>
+        <v>0.7940644681140145</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -944,16 +944,16 @@
         <v>40821</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36477</v>
+        <v>36879</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>42511</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9602425208116722</v>
+        <v>0.9602425208116719</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8580613576280777</v>
+        <v>0.8675265248063496</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5018</v>
+        <v>6042</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05760550701928875</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1710350644381758</v>
+        <v>0.2059355318859856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1010,16 +1010,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6034</v>
+        <v>5632</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03975747918832804</v>
+        <v>0.03975747918832803</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1419386423719221</v>
+        <v>0.1324734751936503</v>
       </c>
     </row>
     <row r="9">
@@ -1124,16 +1124,16 @@
         <v>17624</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15244</v>
+        <v>15212</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>18187</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9690708126153341</v>
+        <v>0.969070812615334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8381743967230335</v>
+        <v>0.8364238376818803</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1145,16 +1145,16 @@
         <v>22890</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20027</v>
+        <v>20464</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>23453</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9760147776149172</v>
+        <v>0.9760147776149174</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.853928981400953</v>
+        <v>0.8725371097643958</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2943</v>
+        <v>2975</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03092918738466596</v>
+        <v>0.03092918738466595</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1618256032769668</v>
+        <v>0.1635761623181194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>3426</v>
+        <v>2989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02398522238508272</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1460710185990453</v>
+        <v>0.1274628902356038</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>4499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3135</v>
+        <v>2640</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>4904</v>
@@ -1503,7 +1503,7 @@
         <v>0.9173155481586057</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6392220151913757</v>
+        <v>0.5382460673226626</v>
       </c>
       <c r="P16" s="6" t="n">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>6546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5092</v>
+        <v>4702</v>
       </c>
       <c r="T16" s="5" t="n">
         <v>6952</v>
@@ -1524,7 +1524,7 @@
         <v>0.9416703217337388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7324634602267884</v>
+        <v>0.6764030015647957</v>
       </c>
       <c r="W16" s="6" t="n">
         <v>1</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1769</v>
+        <v>2264</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08268445184139429</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3607779848086244</v>
+        <v>0.4617539326773299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1860</v>
+        <v>2250</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05832967826626131</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2675365397732088</v>
+        <v>0.3235969984352045</v>
       </c>
     </row>
     <row r="18">
@@ -1695,7 +1695,7 @@
         <v>12319</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10571</v>
+        <v>10285</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>12802</v>
@@ -1704,7 +1704,7 @@
         <v>0.9622325645957903</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8257443825202139</v>
+        <v>0.8034138461043162</v>
       </c>
       <c r="P19" s="6" t="n">
         <v>1</v>
@@ -1716,16 +1716,16 @@
         <v>18495</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16402</v>
+        <v>16846</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>18979</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9745243419639356</v>
+        <v>0.9745243419639357</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.864234006924818</v>
+        <v>0.8876217463183906</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2231</v>
+        <v>2517</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03776743540420966</v>
+        <v>0.03776743540420967</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1742556174797857</v>
+        <v>0.1965861538956834</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2577</v>
+        <v>2133</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02547565803606439</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1357659930751819</v>
+        <v>0.1123782536816103</v>
       </c>
     </row>
     <row r="21">
@@ -1896,19 +1896,19 @@
         <v>48419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38850</v>
+        <v>40116</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51735</v>
+        <v>51729</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9223084405105808</v>
+        <v>0.9223084405105809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7400291592502993</v>
+        <v>0.7641356634487299</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9854749071934061</v>
+        <v>0.985350403287093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -1917,19 +1917,19 @@
         <v>57333</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47796</v>
+        <v>47218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60530</v>
+        <v>60681</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9335852147794196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7782841434628988</v>
+        <v>0.7688763517764452</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9856312437044334</v>
+        <v>0.9881037099107217</v>
       </c>
     </row>
     <row r="23">
@@ -1959,19 +1959,19 @@
         <v>4079</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13648</v>
+        <v>12382</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.077691559489419</v>
+        <v>0.07769155948941904</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01452509280659393</v>
+        <v>0.01464959671290698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2599708407496998</v>
+        <v>0.2358643365512688</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -1980,19 +1980,19 @@
         <v>4079</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>882</v>
+        <v>731</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>13616</v>
+        <v>14194</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.06641478522058038</v>
+        <v>0.06641478522058039</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01436875629556654</v>
+        <v>0.01189629008927819</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2217158565371007</v>
+        <v>0.2311236482235548</v>
       </c>
     </row>
     <row r="24">
@@ -2097,16 +2097,16 @@
         <v>20275</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15580</v>
+        <v>16077</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>22340</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.907550030661292</v>
+        <v>0.9075500306612923</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6973827438303717</v>
+        <v>0.7196705086324334</v>
       </c>
       <c r="P25" s="6" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>21420</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16719</v>
+        <v>16913</v>
       </c>
       <c r="T25" s="5" t="n">
         <v>23485</v>
@@ -2127,7 +2127,7 @@
         <v>0.9120578504386953</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7119168430974971</v>
+        <v>0.7201482946077402</v>
       </c>
       <c r="W25" s="6" t="n">
         <v>1</v>
@@ -2163,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6760</v>
+        <v>6263</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.09244996933870774</v>
+        <v>0.09244996933870775</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3026172561696287</v>
+        <v>0.2803294913675652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6766</v>
+        <v>6572</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08794214956130468</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2880831569025044</v>
+        <v>0.2798517053922587</v>
       </c>
     </row>
     <row r="27">
@@ -2298,19 +2298,19 @@
         <v>155080</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>146215</v>
+        <v>145845</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>159889</v>
+        <v>159856</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9435065701824737</v>
+        <v>0.9435065701824735</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8895702521943534</v>
+        <v>0.8873155270420866</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9727628384682264</v>
+        <v>0.9725621456740506</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>261</v>
@@ -2319,19 +2319,19 @@
         <v>194989</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>185904</v>
+        <v>185586</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>199719</v>
+        <v>200013</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9545434187860116</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9100689901674069</v>
+        <v>0.9085105872239492</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9776950480371631</v>
+        <v>0.9791373958151877</v>
       </c>
     </row>
     <row r="29">
@@ -2361,19 +2361,19 @@
         <v>9286</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4477</v>
+        <v>4510</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18151</v>
+        <v>18521</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05649342981752645</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02723716153177381</v>
+        <v>0.02743785432594939</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1104297478056466</v>
+        <v>0.1126844729579134</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>10</v>
@@ -2382,19 +2382,19 @@
         <v>9286</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4556</v>
+        <v>4262</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18371</v>
+        <v>18689</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04545658121398839</v>
+        <v>0.04545658121398841</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02230495196283663</v>
+        <v>0.02086260418481223</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08993100983259281</v>
+        <v>0.09148941277605081</v>
       </c>
     </row>
     <row r="30">
